--- a/Jogos_do_Dia/2023-07-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>League</t>
   </si>
@@ -163,39 +163,42 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Iwaki</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
     <t>Oita Trinita</t>
   </si>
   <si>
-    <t>Iwaki</t>
-  </si>
-  <si>
-    <t>Vegalta Sendai</t>
+    <t>Renofa Yamaguchi</t>
+  </si>
+  <si>
+    <t>Fagiano Okayama</t>
   </si>
   <si>
     <t>Mito Hollyhock</t>
   </si>
   <si>
+    <t>Ventforet Kofu</t>
+  </si>
+  <si>
+    <t>Tokyo Verdy</t>
+  </si>
+  <si>
     <t>Omiya Ardija</t>
   </si>
   <si>
-    <t>Ventforet Kofu</t>
-  </si>
-  <si>
     <t>ThespaKusatsu Gunma</t>
   </si>
   <si>
     <t>Jubilo Iwata</t>
   </si>
   <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
-    <t>Renofa Yamaguchi</t>
-  </si>
-  <si>
-    <t>Tokyo Verdy</t>
-  </si>
-  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -211,48 +214,51 @@
     <t>CRB</t>
   </si>
   <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
     <t>Nacional</t>
   </si>
   <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
     <t>New York City</t>
   </si>
   <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Tochigi</t>
+  </si>
+  <si>
+    <t>Shimizu S-Pulse</t>
+  </si>
+  <si>
     <t>Machida Zelvia</t>
   </si>
   <si>
-    <t>Tochigi</t>
-  </si>
-  <si>
-    <t>Shimizu S-Pulse</t>
+    <t>Montedio Yamagata</t>
+  </si>
+  <si>
+    <t>Fujieda MYFC</t>
   </si>
   <si>
     <t>Tokushima Vortis</t>
   </si>
   <si>
+    <t>Blaublitz Akita</t>
+  </si>
+  <si>
+    <t>V-Varen Nagasaki</t>
+  </si>
+  <si>
     <t>JEF United</t>
   </si>
   <si>
-    <t>Blaublitz Akita</t>
-  </si>
-  <si>
     <t>Roasso Kumamoto</t>
   </si>
   <si>
     <t>Zweigen Kanazawa</t>
   </si>
   <si>
-    <t>Fujieda MYFC</t>
-  </si>
-  <si>
-    <t>Montedio Yamagata</t>
-  </si>
-  <si>
-    <t>V-Varen Nagasaki</t>
-  </si>
-  <si>
     <t>Ismaily SC</t>
   </si>
   <si>
@@ -268,13 +274,16 @@
     <t>Sport Recife</t>
   </si>
   <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
     <t>Plaza Colonia</t>
   </si>
   <si>
-    <t>San Lorenzo</t>
-  </si>
-  <si>
     <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Colón</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,19 +772,19 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
       <c r="I2">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -784,28 +793,28 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O2">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="P2">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R2">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -817,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>2.36</v>
+        <v>0.91</v>
       </c>
       <c r="X2">
-        <v>1.91</v>
+        <v>0.5</v>
       </c>
       <c r="Y2">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="Z2">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
       <c r="AA2">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -870,19 +879,19 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3">
-        <v>2.07</v>
+        <v>3.28</v>
       </c>
       <c r="H3">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
       <c r="I3">
-        <v>3.65</v>
+        <v>2.04</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -891,29 +900,29 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="O3">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="P3">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q3">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R3">
+        <v>1.67</v>
+      </c>
+      <c r="S3">
         <v>2.1</v>
       </c>
-      <c r="S3">
-        <v>1.67</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -924,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.91</v>
+        <v>1.36</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="Y3">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="Z3">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AA3">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -977,19 +986,19 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H4">
         <v>3.2</v>
       </c>
       <c r="I4">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1004,23 +1013,23 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>2.38</v>
+      </c>
+      <c r="O4">
+        <v>1.54</v>
+      </c>
+      <c r="P4">
+        <v>1.5</v>
+      </c>
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <v>1.91</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
       </c>
-      <c r="O4">
-        <v>1.8</v>
-      </c>
-      <c r="P4">
-        <v>1.36</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>1.67</v>
-      </c>
-      <c r="S4">
-        <v>2.1</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
@@ -1031,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.36</v>
+        <v>2.36</v>
       </c>
       <c r="X4">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="Z4">
-        <v>1.7</v>
+        <v>1.09</v>
       </c>
       <c r="AA4">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1084,43 +1093,43 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5">
-        <v>2.47</v>
+        <v>2.88</v>
       </c>
       <c r="H5">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="I5">
+        <v>2.38</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.85</v>
+      </c>
+      <c r="O5">
+        <v>1.89</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
         <v>2.75</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1.9</v>
-      </c>
-      <c r="O5">
-        <v>1.71</v>
-      </c>
-      <c r="P5">
-        <v>1.44</v>
-      </c>
-      <c r="Q5">
-        <v>2.63</v>
       </c>
       <c r="R5">
         <v>1.73</v>
@@ -1138,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Y5">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Z5">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AA5">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1191,73 +1200,73 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6">
-        <v>2.55</v>
+        <v>2.04</v>
       </c>
       <c r="H6">
+        <v>3.18</v>
+      </c>
+      <c r="I6">
+        <v>3.28</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.88</v>
+      </c>
+      <c r="O6">
+        <v>1.86</v>
+      </c>
+      <c r="P6">
+        <v>1.36</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>2.65</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2.15</v>
-      </c>
-      <c r="O6">
-        <v>1.65</v>
-      </c>
-      <c r="P6">
+      <c r="R6">
+        <v>1.73</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1.67</v>
+      </c>
+      <c r="X6">
+        <v>1.55</v>
+      </c>
+      <c r="Y6">
         <v>1.44</v>
       </c>
-      <c r="Q6">
-        <v>2.63</v>
-      </c>
-      <c r="R6">
-        <v>1.83</v>
-      </c>
-      <c r="S6">
-        <v>1.83</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>1.08</v>
-      </c>
-      <c r="X6">
-        <v>0.82</v>
-      </c>
-      <c r="Y6">
-        <v>1.53</v>
-      </c>
       <c r="Z6">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="AA6">
-        <v>2.87</v>
+        <v>3.07</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1298,19 +1307,19 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7">
-        <v>1.86</v>
+        <v>2.45</v>
       </c>
       <c r="H7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>3.95</v>
+        <v>2.7</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1319,28 +1328,28 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O7">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="P7">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q7">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R7">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="S7">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1352,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1.92</v>
+        <v>0.83</v>
       </c>
       <c r="X7">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="Y7">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Z7">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AA7">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1405,19 +1414,19 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="H8">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1426,28 +1435,28 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O8">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R8">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1459,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="X8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y8">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="Z8">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AA8">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1512,19 +1521,19 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9">
-        <v>1.59</v>
+        <v>2.05</v>
       </c>
       <c r="H9">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1539,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="O9">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q9">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R9">
         <v>1.83</v>
@@ -1566,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X9">
-        <v>0.58</v>
+        <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="Z9">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AA9">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1619,19 +1628,19 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="I10">
-        <v>3.3</v>
+        <v>2.61</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1646,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="O10">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="P10">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R10">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1673,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="X10">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="Y10">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Z10">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="AA10">
-        <v>3.07</v>
+        <v>2.87</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1726,19 +1735,19 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1753,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="O11">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1780,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>1.73</v>
       </c>
       <c r="X11">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="Y11">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="Z11">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AA11">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1833,43 +1842,43 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>2.07</v>
+        <v>1.57</v>
       </c>
       <c r="H12">
+        <v>3.42</v>
+      </c>
+      <c r="I12">
+        <v>5.5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.74</v>
+      </c>
+      <c r="O12">
+        <v>2.02</v>
+      </c>
+      <c r="P12">
+        <v>1.33</v>
+      </c>
+      <c r="Q12">
         <v>3.25</v>
-      </c>
-      <c r="I12">
-        <v>3.25</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.8</v>
-      </c>
-      <c r="O12">
-        <v>1.8</v>
-      </c>
-      <c r="P12">
-        <v>1.44</v>
-      </c>
-      <c r="Q12">
-        <v>2.63</v>
       </c>
       <c r="R12">
         <v>1.83</v>
@@ -1887,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
-        <v>1.25</v>
+        <v>0.58</v>
       </c>
       <c r="Y12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="Z12">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AA12">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1940,19 +1949,19 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>1.36</v>
       </c>
       <c r="H13">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="I13">
-        <v>7.4</v>
+        <v>7.35</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1967,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O13">
         <v>1.93</v>
@@ -2047,10 +2056,10 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>1.95</v>
@@ -2154,10 +2163,10 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15">
         <v>2.1</v>
@@ -2261,10 +2270,10 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16">
         <v>2.75</v>
@@ -2306,13 +2315,13 @@
         <v>1.75</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W16">
         <v>2.45</v>
@@ -2368,16 +2377,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>2.45</v>
@@ -2395,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="O17">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2463,7 +2472,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>45112</v>
@@ -2472,76 +2481,76 @@
         <v>47</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H18">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="I18">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="M18">
-        <v>3.82</v>
+        <v>2.3</v>
       </c>
       <c r="N18">
-        <v>1.68</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="P18">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="Q18">
-        <v>3.31</v>
+        <v>2.2</v>
       </c>
       <c r="R18">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="S18">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T18">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="U18">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="V18">
-        <v>3.35</v>
+        <v>1.49</v>
       </c>
       <c r="W18">
-        <v>2.75</v>
+        <v>1.64</v>
       </c>
       <c r="X18">
-        <v>0.63</v>
+        <v>1.3</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Z18">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AA18">
-        <v>1.25</v>
+        <v>2.95</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2570,7 +2579,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>45112</v>
@@ -2579,76 +2588,76 @@
         <v>47</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G19">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="H19">
+        <v>4.07</v>
+      </c>
+      <c r="I19">
+        <v>5.75</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>10.5</v>
+      </c>
+      <c r="L19">
+        <v>1.21</v>
+      </c>
+      <c r="M19">
+        <v>3.82</v>
+      </c>
+      <c r="N19">
+        <v>1.74</v>
+      </c>
+      <c r="O19">
+        <v>1.97</v>
+      </c>
+      <c r="P19">
+        <v>1.34</v>
+      </c>
+      <c r="Q19">
+        <v>3.31</v>
+      </c>
+      <c r="R19">
+        <v>2.14</v>
+      </c>
+      <c r="S19">
+        <v>1.63</v>
+      </c>
+      <c r="T19">
+        <v>1.03</v>
+      </c>
+      <c r="U19">
+        <v>1.14</v>
+      </c>
+      <c r="V19">
+        <v>3.35</v>
+      </c>
+      <c r="W19">
         <v>2.75</v>
       </c>
-      <c r="I19">
-        <v>2.5</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1.53</v>
-      </c>
-      <c r="M19">
-        <v>2.3</v>
-      </c>
-      <c r="N19">
-        <v>2.8</v>
-      </c>
-      <c r="O19">
-        <v>1.44</v>
-      </c>
-      <c r="P19">
-        <v>1.62</v>
-      </c>
-      <c r="Q19">
-        <v>2.2</v>
-      </c>
-      <c r="R19">
-        <v>2.2</v>
-      </c>
-      <c r="S19">
-        <v>1.62</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1.64</v>
-      </c>
       <c r="X19">
-        <v>1.3</v>
+        <v>0.63</v>
       </c>
       <c r="Y19">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AA19">
-        <v>2.95</v>
+        <v>1.25</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2689,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H20">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="I20">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2716,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P20">
         <v>1.4</v>
@@ -2779,6 +2788,113 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21">
+        <v>1.33</v>
+      </c>
+      <c r="H21">
+        <v>4.5</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.61</v>
+      </c>
+      <c r="O21">
+        <v>2.15</v>
+      </c>
+      <c r="P21">
+        <v>1.3</v>
+      </c>
+      <c r="Q21">
+        <v>3.4</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>2.7</v>
+      </c>
+      <c r="X21">
+        <v>0.9</v>
+      </c>
+      <c r="Y21">
+        <v>1.81</v>
+      </c>
+      <c r="Z21">
+        <v>1.07</v>
+      </c>
+      <c r="AA21">
+        <v>2.88</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-07-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>League</t>
   </si>
@@ -121,6 +121,9 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>USA MLS</t>
+  </si>
+  <si>
     <t>Japan J2 League</t>
   </si>
   <si>
@@ -136,7 +139,7 @@
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>USA MLS</t>
+    <t>00:25:00</t>
   </si>
   <si>
     <t>07:00:00</t>
@@ -166,39 +169,42 @@
     <t>21:30:00</t>
   </si>
   <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
+    <t>Mito Hollyhock</t>
+  </si>
+  <si>
+    <t>ThespaKusatsu Gunma</t>
+  </si>
+  <si>
+    <t>Omiya Ardija</t>
+  </si>
+  <si>
+    <t>Tokyo Verdy</t>
+  </si>
+  <si>
     <t>Iwaki</t>
   </si>
   <si>
-    <t>Vegalta Sendai</t>
+    <t>Jubilo Iwata</t>
+  </si>
+  <si>
+    <t>Fagiano Okayama</t>
+  </si>
+  <si>
+    <t>Renofa Yamaguchi</t>
   </si>
   <si>
     <t>Oita Trinita</t>
   </si>
   <si>
-    <t>Renofa Yamaguchi</t>
-  </si>
-  <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
-    <t>Mito Hollyhock</t>
-  </si>
-  <si>
     <t>Ventforet Kofu</t>
   </si>
   <si>
-    <t>Tokyo Verdy</t>
-  </si>
-  <si>
-    <t>Omiya Ardija</t>
-  </si>
-  <si>
-    <t>ThespaKusatsu Gunma</t>
-  </si>
-  <si>
-    <t>Jubilo Iwata</t>
-  </si>
-  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -226,37 +232,40 @@
     <t>River Plate</t>
   </si>
   <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>Shimizu S-Pulse</t>
+  </si>
+  <si>
+    <t>Tokushima Vortis</t>
+  </si>
+  <si>
+    <t>Roasso Kumamoto</t>
+  </si>
+  <si>
+    <t>JEF United</t>
+  </si>
+  <si>
+    <t>V-Varen Nagasaki</t>
+  </si>
+  <si>
     <t>Tochigi</t>
   </si>
   <si>
-    <t>Shimizu S-Pulse</t>
+    <t>Zweigen Kanazawa</t>
+  </si>
+  <si>
+    <t>Fujieda MYFC</t>
+  </si>
+  <si>
+    <t>Montedio Yamagata</t>
   </si>
   <si>
     <t>Machida Zelvia</t>
   </si>
   <si>
-    <t>Montedio Yamagata</t>
-  </si>
-  <si>
-    <t>Fujieda MYFC</t>
-  </si>
-  <si>
-    <t>Tokushima Vortis</t>
-  </si>
-  <si>
     <t>Blaublitz Akita</t>
-  </si>
-  <si>
-    <t>V-Varen Nagasaki</t>
-  </si>
-  <si>
-    <t>JEF United</t>
-  </si>
-  <si>
-    <t>Roasso Kumamoto</t>
-  </si>
-  <si>
-    <t>Zweigen Kanazawa</t>
   </si>
   <si>
     <t>Ismaily SC</t>
@@ -645,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,147 +778,147 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H2">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
+        <v>3.3</v>
+      </c>
+      <c r="J2">
+        <v>1.04</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>1.25</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1.51</v>
-      </c>
-      <c r="M2">
-        <v>2.45</v>
-      </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>1.89</v>
       </c>
       <c r="O2">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="P2">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="Q2">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R2">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S2">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W2">
-        <v>0.91</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X2">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="Y2">
         <v>1.48</v>
       </c>
       <c r="Z2">
-        <v>0.9</v>
+        <v>1.18</v>
       </c>
       <c r="AA2">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>45112</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="H3">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N3">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P3">
         <v>1.36</v>
@@ -924,19 +933,19 @@
         <v>2.1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W3">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="Y3">
         <v>1.45</v>
@@ -948,182 +957,182 @@
         <v>3.15</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45112</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N4">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q4">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R4">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1.39</v>
+      </c>
+      <c r="U4">
+        <v>1.29</v>
+      </c>
+      <c r="V4">
+        <v>1.45</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1.29</v>
+      </c>
+      <c r="Z4">
+        <v>1.23</v>
+      </c>
+      <c r="AA4">
+        <v>2.52</v>
+      </c>
+      <c r="AB4">
         <v>1.8</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>2.36</v>
-      </c>
-      <c r="X4">
-        <v>1.91</v>
-      </c>
-      <c r="Y4">
-        <v>1.41</v>
-      </c>
-      <c r="Z4">
-        <v>1.09</v>
-      </c>
-      <c r="AA4">
-        <v>2.5</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>45112</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="H5">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O5">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -1138,206 +1147,206 @@
         <v>2</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X5">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="Y5">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="Z5">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AA5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>45112</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="H6">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>3.28</v>
+        <v>2.7</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
+        <v>1.65</v>
+      </c>
+      <c r="P6">
+        <v>1.44</v>
+      </c>
+      <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>1.83</v>
+      </c>
+      <c r="S6">
+        <v>1.83</v>
+      </c>
+      <c r="T6">
+        <v>1.57</v>
+      </c>
+      <c r="U6">
+        <v>1.28</v>
+      </c>
+      <c r="V6">
+        <v>1.28</v>
+      </c>
+      <c r="W6">
+        <v>1.23</v>
+      </c>
+      <c r="X6">
+        <v>0.75</v>
+      </c>
+      <c r="Y6">
+        <v>1.53</v>
+      </c>
+      <c r="Z6">
+        <v>1.34</v>
+      </c>
+      <c r="AA6">
+        <v>2.87</v>
+      </c>
+      <c r="AB6">
+        <v>2.2</v>
+      </c>
+      <c r="AC6">
+        <v>5.75</v>
+      </c>
+      <c r="AD6">
         <v>1.86</v>
       </c>
-      <c r="P6">
-        <v>1.36</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>1.73</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>1.67</v>
-      </c>
-      <c r="X6">
-        <v>1.55</v>
-      </c>
-      <c r="Y6">
-        <v>1.44</v>
-      </c>
-      <c r="Z6">
-        <v>1.63</v>
-      </c>
-      <c r="AA6">
-        <v>3.07</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>45112</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="H7">
+        <v>3.3</v>
+      </c>
+      <c r="I7">
+        <v>3.3</v>
+      </c>
+      <c r="J7">
+        <v>1.06</v>
+      </c>
+      <c r="K7">
+        <v>9.75</v>
+      </c>
+      <c r="L7">
+        <v>1.36</v>
+      </c>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2.7</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O7">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="P7">
         <v>1.44</v>
@@ -1346,218 +1355,218 @@
         <v>2.63</v>
       </c>
       <c r="R7">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W7">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="X7">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="Y7">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Z7">
         <v>1.23</v>
       </c>
       <c r="AA7">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>45112</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>1.57</v>
+      </c>
+      <c r="P8">
+        <v>1.57</v>
+      </c>
+      <c r="Q8">
+        <v>2.25</v>
+      </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
+      <c r="S8">
+        <v>1.67</v>
+      </c>
+      <c r="T8">
+        <v>1.3</v>
+      </c>
+      <c r="U8">
+        <v>1.33</v>
+      </c>
+      <c r="V8">
+        <v>1.52</v>
+      </c>
+      <c r="W8">
+        <v>1.08</v>
+      </c>
+      <c r="X8">
+        <v>0.46</v>
+      </c>
+      <c r="Y8">
+        <v>1.48</v>
+      </c>
+      <c r="Z8">
+        <v>0.9</v>
+      </c>
+      <c r="AA8">
+        <v>2.38</v>
+      </c>
+      <c r="AB8">
+        <v>1.76</v>
+      </c>
+      <c r="AC8">
+        <v>5.75</v>
+      </c>
+      <c r="AD8">
         <v>2.4</v>
       </c>
-      <c r="O8">
-        <v>1.5</v>
-      </c>
-      <c r="P8">
-        <v>1.53</v>
-      </c>
-      <c r="Q8">
-        <v>2.38</v>
-      </c>
-      <c r="R8">
-        <v>2.2</v>
-      </c>
-      <c r="S8">
-        <v>1.62</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>1.92</v>
-      </c>
-      <c r="X8">
-        <v>1.5</v>
-      </c>
-      <c r="Y8">
-        <v>1.33</v>
-      </c>
-      <c r="Z8">
-        <v>1.33</v>
-      </c>
-      <c r="AA8">
-        <v>2.66</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>45112</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I9">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N9">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O9">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Q9">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="R9">
         <v>1.83</v>
@@ -1566,206 +1575,206 @@
         <v>1.83</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W9">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="X9">
-        <v>1.25</v>
+        <v>0.54</v>
       </c>
       <c r="Y9">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="Z9">
+        <v>1.16</v>
+      </c>
+      <c r="AA9">
+        <v>2.83</v>
+      </c>
+      <c r="AB9">
+        <v>1.17</v>
+      </c>
+      <c r="AC9">
+        <v>8.75</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
         <v>1.23</v>
       </c>
-      <c r="AA9">
-        <v>2.63</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>45112</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="H10">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
-        <v>2.61</v>
+        <v>3.5</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="O10">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="P10">
+        <v>1.36</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1.73</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1.27</v>
+      </c>
+      <c r="U10">
+        <v>1.25</v>
+      </c>
+      <c r="V10">
+        <v>1.67</v>
+      </c>
+      <c r="W10">
+        <v>1.54</v>
+      </c>
+      <c r="X10">
+        <v>1.67</v>
+      </c>
+      <c r="Y10">
         <v>1.44</v>
       </c>
-      <c r="Q10">
-        <v>2.63</v>
-      </c>
-      <c r="R10">
-        <v>1.83</v>
-      </c>
-      <c r="S10">
-        <v>1.83</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1.08</v>
-      </c>
-      <c r="X10">
-        <v>0.82</v>
-      </c>
-      <c r="Y10">
-        <v>1.53</v>
-      </c>
       <c r="Z10">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="AA10">
-        <v>2.87</v>
+        <v>3.07</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>45112</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H11">
         <v>3.1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="O11">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1780,159 +1789,159 @@
         <v>2</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W11">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="X11">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="Z11">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AA11">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>45112</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="H12">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="O12">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="P12">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q12">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="R12">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S12">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="X12">
-        <v>0.58</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="Z12">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AA12">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1946,100 +1955,100 @@
         <v>42</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="H13">
-        <v>4.22</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>7.35</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N13">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q13">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R13">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S13">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W13">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="Y13">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="Z13">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AA13">
-        <v>3.11</v>
+        <v>2.66</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2053,105 +2062,105 @@
         <v>43</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14">
-        <v>1.95</v>
+        <v>1.33</v>
       </c>
       <c r="H14">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="I14">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M14">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="P14">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q14">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R14">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="S14">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W14">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="Z14">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="AA14">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2">
         <v>45112</v>
@@ -2163,37 +2172,37 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H15">
         <v>2.9</v>
       </c>
       <c r="I15">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N15">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
         <v>1.53</v>
@@ -2202,63 +2211,63 @@
         <v>2.38</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S15">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W15">
+        <v>2.18</v>
+      </c>
+      <c r="X15">
+        <v>0.91</v>
+      </c>
+      <c r="Y15">
+        <v>1.56</v>
+      </c>
+      <c r="Z15">
+        <v>1.14</v>
+      </c>
+      <c r="AA15">
+        <v>2.7</v>
+      </c>
+      <c r="AB15">
+        <v>1.41</v>
+      </c>
+      <c r="AC15">
+        <v>6.5</v>
+      </c>
+      <c r="AD15">
+        <v>3.4</v>
+      </c>
+      <c r="AE15">
+        <v>1.27</v>
+      </c>
+      <c r="AF15">
         <v>1.5</v>
       </c>
-      <c r="X15">
-        <v>0.5</v>
-      </c>
-      <c r="Y15">
-        <v>1.69</v>
-      </c>
-      <c r="Z15">
-        <v>1.31</v>
-      </c>
-      <c r="AA15">
-        <v>3</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>45112</v>
@@ -2270,34 +2279,34 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16">
+        <v>2.1</v>
+      </c>
+      <c r="H16">
+        <v>2.9</v>
+      </c>
+      <c r="I16">
+        <v>3.4</v>
+      </c>
+      <c r="J16">
+        <v>1.08</v>
+      </c>
+      <c r="K16">
+        <v>8.5</v>
+      </c>
+      <c r="L16">
+        <v>1.42</v>
+      </c>
+      <c r="M16">
         <v>2.75</v>
       </c>
-      <c r="H16">
-        <v>2.87</v>
-      </c>
-      <c r="I16">
-        <v>2.45</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O16">
         <v>1.53</v>
@@ -2309,58 +2318,58 @@
         <v>2.38</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="U16">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="V16">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="W16">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.69</v>
+      </c>
+      <c r="Z16">
+        <v>1.31</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
+        <v>1.54</v>
+      </c>
+      <c r="AC16">
+        <v>6</v>
+      </c>
+      <c r="AD16">
+        <v>2.9</v>
+      </c>
+      <c r="AE16">
+        <v>1.26</v>
+      </c>
+      <c r="AF16">
         <v>1.5</v>
       </c>
-      <c r="Y16">
-        <v>1.67</v>
-      </c>
-      <c r="Z16">
-        <v>1.51</v>
-      </c>
-      <c r="AA16">
-        <v>3.18</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2374,40 +2383,40 @@
         <v>46</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I17">
         <v>2.45</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="O17">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2419,60 +2428,60 @@
         <v>2</v>
       </c>
       <c r="S17">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W17">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="X17">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="Y17">
+        <v>1.67</v>
+      </c>
+      <c r="Z17">
+        <v>1.51</v>
+      </c>
+      <c r="AA17">
+        <v>3.18</v>
+      </c>
+      <c r="AB17">
+        <v>1.86</v>
+      </c>
+      <c r="AC17">
+        <v>5.5</v>
+      </c>
+      <c r="AD17">
+        <v>2.25</v>
+      </c>
+      <c r="AE17">
+        <v>1.27</v>
+      </c>
+      <c r="AF17">
         <v>1.5</v>
       </c>
-      <c r="Z17">
-        <v>1.23</v>
-      </c>
-      <c r="AA17">
-        <v>2.73</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>45112</v>
@@ -2481,207 +2490,207 @@
         <v>47</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="H18">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="I18">
+        <v>2.31</v>
+      </c>
+      <c r="J18">
+        <v>1.07</v>
+      </c>
+      <c r="K18">
+        <v>6.45</v>
+      </c>
+      <c r="L18">
+        <v>1.47</v>
+      </c>
+      <c r="M18">
+        <v>2.45</v>
+      </c>
+      <c r="N18">
         <v>2.5</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="O18">
+        <v>1.5</v>
+      </c>
+      <c r="P18">
         <v>1.53</v>
       </c>
-      <c r="M18">
-        <v>2.3</v>
-      </c>
-      <c r="N18">
-        <v>2.8</v>
-      </c>
-      <c r="O18">
-        <v>1.44</v>
-      </c>
-      <c r="P18">
-        <v>1.62</v>
-      </c>
       <c r="Q18">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R18">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T18">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="U18">
+        <v>1.42</v>
+      </c>
+      <c r="V18">
         <v>1.45</v>
       </c>
-      <c r="V18">
-        <v>1.49</v>
-      </c>
       <c r="W18">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="X18">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="Y18">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="Z18">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AA18">
-        <v>2.95</v>
+        <v>2.73</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>45112</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19">
+        <v>2.8</v>
+      </c>
+      <c r="H19">
+        <v>2.75</v>
+      </c>
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+      <c r="J19">
+        <v>1.1</v>
+      </c>
+      <c r="K19">
+        <v>5.75</v>
+      </c>
+      <c r="L19">
+        <v>1.53</v>
+      </c>
+      <c r="M19">
+        <v>2.3</v>
+      </c>
+      <c r="N19">
+        <v>2.8</v>
+      </c>
+      <c r="O19">
+        <v>1.44</v>
+      </c>
+      <c r="P19">
+        <v>1.62</v>
+      </c>
+      <c r="Q19">
+        <v>2.2</v>
+      </c>
+      <c r="R19">
+        <v>2.2</v>
+      </c>
+      <c r="S19">
+        <v>1.62</v>
+      </c>
+      <c r="T19">
+        <v>1.39</v>
+      </c>
+      <c r="U19">
         <v>1.45</v>
       </c>
-      <c r="H19">
-        <v>4.07</v>
-      </c>
-      <c r="I19">
-        <v>5.75</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>10.5</v>
-      </c>
-      <c r="L19">
-        <v>1.21</v>
-      </c>
-      <c r="M19">
-        <v>3.82</v>
-      </c>
-      <c r="N19">
+      <c r="V19">
+        <v>1.49</v>
+      </c>
+      <c r="W19">
+        <v>1.64</v>
+      </c>
+      <c r="X19">
+        <v>1.3</v>
+      </c>
+      <c r="Y19">
+        <v>1.64</v>
+      </c>
+      <c r="Z19">
+        <v>1.31</v>
+      </c>
+      <c r="AA19">
+        <v>2.95</v>
+      </c>
+      <c r="AB19">
         <v>1.74</v>
       </c>
-      <c r="O19">
-        <v>1.97</v>
-      </c>
-      <c r="P19">
-        <v>1.34</v>
-      </c>
-      <c r="Q19">
-        <v>3.31</v>
-      </c>
-      <c r="R19">
-        <v>2.14</v>
-      </c>
-      <c r="S19">
-        <v>1.63</v>
-      </c>
-      <c r="T19">
-        <v>1.03</v>
-      </c>
-      <c r="U19">
-        <v>1.14</v>
-      </c>
-      <c r="V19">
-        <v>3.35</v>
-      </c>
-      <c r="W19">
-        <v>2.75</v>
-      </c>
-      <c r="X19">
-        <v>0.63</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>1.25</v>
-      </c>
-      <c r="AA19">
-        <v>1.25</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2695,105 +2704,105 @@
         <v>48</v>
       </c>
       <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>1.33</v>
+      </c>
+      <c r="H20">
+        <v>4.6</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>10.5</v>
+      </c>
+      <c r="L20">
+        <v>1.21</v>
+      </c>
+      <c r="M20">
+        <v>3.82</v>
+      </c>
+      <c r="N20">
+        <v>1.71</v>
+      </c>
+      <c r="O20">
+        <v>2.02</v>
+      </c>
+      <c r="P20">
+        <v>1.34</v>
+      </c>
+      <c r="Q20">
+        <v>3.31</v>
+      </c>
+      <c r="R20">
+        <v>2.14</v>
+      </c>
+      <c r="S20">
+        <v>1.63</v>
+      </c>
+      <c r="T20">
+        <v>1.03</v>
+      </c>
+      <c r="U20">
+        <v>1.14</v>
+      </c>
+      <c r="V20">
+        <v>3.35</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>0.63</v>
+      </c>
+      <c r="Y20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20">
-        <v>2.14</v>
-      </c>
-      <c r="H20">
-        <v>3.38</v>
-      </c>
-      <c r="I20">
-        <v>3.48</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1.85</v>
-      </c>
-      <c r="O20">
-        <v>1.85</v>
-      </c>
-      <c r="P20">
-        <v>1.4</v>
-      </c>
-      <c r="Q20">
-        <v>2.75</v>
-      </c>
-      <c r="R20">
-        <v>1.75</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1.67</v>
-      </c>
-      <c r="X20">
-        <v>1.1</v>
-      </c>
-      <c r="Y20">
-        <v>1.6</v>
-      </c>
       <c r="Z20">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AA20">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>45112</v>
@@ -2802,100 +2811,207 @@
         <v>49</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>1.85</v>
+      </c>
+      <c r="H21">
+        <v>3.65</v>
+      </c>
+      <c r="I21">
+        <v>3.7</v>
+      </c>
+      <c r="J21">
+        <v>1.03</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>1.25</v>
+      </c>
+      <c r="M21">
+        <v>3.75</v>
+      </c>
+      <c r="N21">
+        <v>1.7</v>
+      </c>
+      <c r="O21">
+        <v>2.08</v>
+      </c>
+      <c r="P21">
+        <v>1.4</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>1.75</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>1.24</v>
+      </c>
+      <c r="U21">
+        <v>1.26</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>1.67</v>
+      </c>
+      <c r="X21">
+        <v>1.1</v>
+      </c>
+      <c r="Y21">
+        <v>1.6</v>
+      </c>
+      <c r="Z21">
+        <v>1.14</v>
+      </c>
+      <c r="AA21">
+        <v>2.74</v>
+      </c>
+      <c r="AB21">
+        <v>1.65</v>
+      </c>
+      <c r="AC21">
+        <v>7</v>
+      </c>
+      <c r="AD21">
+        <v>2.7</v>
+      </c>
+      <c r="AE21">
+        <v>1.27</v>
+      </c>
+      <c r="AF21">
+        <v>1.5</v>
+      </c>
+      <c r="AG21">
+        <v>1.87</v>
+      </c>
+      <c r="AH21">
+        <v>2.45</v>
+      </c>
+      <c r="AI21">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21">
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22">
         <v>1.33</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>4.5</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>8</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>1.18</v>
+      </c>
+      <c r="M22">
+        <v>4.33</v>
+      </c>
+      <c r="N22">
         <v>1.61</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>2.15</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>1.3</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>3.4</v>
       </c>
-      <c r="R21">
+      <c r="R22">
         <v>1.95</v>
       </c>
-      <c r="S21">
+      <c r="S22">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
+      <c r="T22">
+        <v>1.06</v>
+      </c>
+      <c r="U22">
+        <v>1.14</v>
+      </c>
+      <c r="V22">
+        <v>4.07</v>
+      </c>
+      <c r="W22">
         <v>2.7</v>
       </c>
-      <c r="X21">
+      <c r="X22">
         <v>0.9</v>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <v>1.81</v>
       </c>
-      <c r="Z21">
+      <c r="Z22">
         <v>1.07</v>
       </c>
-      <c r="AA21">
+      <c r="AA22">
         <v>2.88</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
+      <c r="AB22">
+        <v>1.14</v>
+      </c>
+      <c r="AC22">
+        <v>11.5</v>
+      </c>
+      <c r="AD22">
+        <v>7.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.24</v>
+      </c>
+      <c r="AF22">
+        <v>1.44</v>
+      </c>
+      <c r="AG22">
+        <v>1.8</v>
+      </c>
+      <c r="AH22">
+        <v>2.35</v>
+      </c>
+      <c r="AI22">
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
